--- a/reference/sales_report/BUDGET_TRANSPORT_2022.xlsx
+++ b/reference/sales_report/BUDGET_TRANSPORT_2022.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\MAGANG\Program LINC\linc-report\reference\sales_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SERVER_WEBAPP\linc-report\reference\sales_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6A6B8E-377E-4913-BC0B-B2F5D590DB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4F88FEA8-3353-410F-86DD-68118DE7F2C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>lincbp</author>
   </authors>
   <commentList>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{C062A4F9-0271-459F-8092-60D954C7BBB0}">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +469,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,7 +526,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 128 4 8" xfId="1" xr:uid="{7DF3D1B1-9F19-4332-ADB1-AF0951781CAF}"/>
+    <cellStyle name="Normal 128 4 8" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -838,11 +837,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118BFBDF-EF45-4D08-8496-35D17C1A06EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,7 +1333,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1449,7 +1448,7 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>8000000065</v>
       </c>
       <c r="E12" t="s">
         <v>68</v>
@@ -3613,7 +3612,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -3878,7 +3877,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -4408,7 +4407,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
@@ -5839,7 +5838,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
@@ -5848,7 +5847,7 @@
         <v>117</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>3000018615</v>
       </c>
       <c r="E95" t="s">
         <v>132</v>
@@ -6537,7 +6536,7 @@
         <v>129</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>3000020650</v>
       </c>
       <c r="E108" t="s">
         <v>132</v>
@@ -6634,6 +6633,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/reference/sales_report/BUDGET_TRANSPORT_2022.xlsx
+++ b/reference/sales_report/BUDGET_TRANSPORT_2022.xlsx
@@ -470,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +499,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -521,8 +527,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5263,8 +5270,8 @@
       <c r="C84" t="s">
         <v>106</v>
       </c>
-      <c r="D84">
-        <v>0</v>
+      <c r="D84" s="1">
+        <v>3000017698</v>
       </c>
       <c r="E84" t="s">
         <v>132</v>
@@ -5316,8 +5323,8 @@
       <c r="C85" t="s">
         <v>107</v>
       </c>
-      <c r="D85">
-        <v>0</v>
+      <c r="D85" s="1">
+        <v>3000013943</v>
       </c>
       <c r="E85" t="s">
         <v>132</v>
@@ -5581,8 +5588,8 @@
       <c r="C90" t="s">
         <v>112</v>
       </c>
-      <c r="D90">
-        <v>0</v>
+      <c r="D90" s="1">
+        <v>3000002510</v>
       </c>
       <c r="E90" t="s">
         <v>132</v>
@@ -5794,7 +5801,7 @@
         <v>116</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>3000003579</v>
       </c>
       <c r="E94" t="s">
         <v>132</v>
@@ -5900,7 +5907,7 @@
         <v>118</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>3000020697</v>
       </c>
       <c r="E96" t="s">
         <v>132</v>
@@ -5953,7 +5960,7 @@
         <v>88</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>3000016893</v>
       </c>
       <c r="E97" t="s">
         <v>132</v>
@@ -6165,7 +6172,7 @@
         <v>122</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>3000004855</v>
       </c>
       <c r="E101" t="s">
         <v>132</v>
@@ -6324,7 +6331,7 @@
         <v>125</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>3000007633</v>
       </c>
       <c r="E104" t="s">
         <v>132</v>
@@ -6377,7 +6384,7 @@
         <v>126</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>3000017669</v>
       </c>
       <c r="E105" t="s">
         <v>132</v>

--- a/reference/sales_report/BUDGET_TRANSPORT_2022.xlsx
+++ b/reference/sales_report/BUDGET_TRANSPORT_2022.xlsx
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,7 +2409,7 @@
         <v>49</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3000003570</v>
       </c>
       <c r="E30" t="s">
         <v>68</v>

--- a/reference/sales_report/BUDGET_TRANSPORT_2022.xlsx
+++ b/reference/sales_report/BUDGET_TRANSPORT_2022.xlsx
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
